--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,46 +757,46 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>3.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:32</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.89</v>
+        <v>3.29</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -804,24 +804,24 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.3</v>
+        <v>2.31</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7.81</v>
+        <v>2.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.14</v>
+        <v>1.38</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.19</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>19/08/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>05/07/2023 21:25</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>19/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>05/07/2023 21:26</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="R5" t="n">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.51</v>
+        <v>7.81</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:40</t>
+          <t>20/08/2023 20:44</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:44</t>
+          <t>20/08/2023 20:40</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:42</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:03</t>
+          <t>07/08/2023 14:02</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>27/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
         </is>
       </c>
     </row>
@@ -2137,62 +2137,62 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>5.74</v>
+        <v>4.58</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>5.84</v>
+        <v>3.74</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.26</v>
+        <v>7.53</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8.640000000000001</v>
+        <v>4.42</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.99</v>
+        <v>3.31</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:26</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.94</v>
+        <v>4.16</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:26</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.16</v>
+        <v>4.94</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.34</v>
+        <v>5.1</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.34</v>
+        <v>4.91</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.58</v>
+        <v>8.19</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.36</v>
+        <v>7.88</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>5.1</v>
+        <v>3.34</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.91</v>
+        <v>3.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>8.19</v>
+        <v>2.58</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>7.88</v>
+        <v>2.36</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.28</v>
+        <v>2.31</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.06</v>
+        <v>3.5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>6.79</v>
+        <v>3.27</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.32</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.970000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,48 +5748,48 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.31</v>
+        <v>1.28</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N58" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="R58" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S58" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P58" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
       <c r="T58" t="n">
-        <v>3.54</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:44</t>
+          <t>27/09/2023 20:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,190 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-cagliari/EehFLX72/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45205.77083333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-udinese/xb55WlMK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45205.86458333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-sassuolo/EPJAA7a1/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
         <v>4.27</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.43</v>
+        <v>2.31</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>5.18</v>
+        <v>3.5</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>5.07</v>
+        <v>3.27</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>7.71</v>
+        <v>4.5</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>7.42</v>
+        <v>3.54</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.31</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>3.54</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:44</t>
+          <t>27/09/2023 20:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.06</v>
+        <v>5.18</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,32 +5764,32 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>6.79</v>
+        <v>5.07</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:43</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.97</v>
+        <v>2.31</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:22</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:25</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.01</v>
+        <v>3.35</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.43</v>
+        <v>4.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:22</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:25</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.89</v>
+        <v>1.85</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.35</v>
+        <v>2.01</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,98 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/lecce-sassuolo/EPJAA7a1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-bologna/WE9vQnal/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,62 +3701,62 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.47</v>
+        <v>3.16</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>17/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>29/08/2023 08:54</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:49</t>
-        </is>
-      </c>
       <c r="R36" t="n">
-        <v>3.76</v>
+        <v>2.51</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.17</v>
+        <v>2.35</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.16</v>
+        <v>2.47</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>17/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="R37" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>29/08/2023 08:54</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:59</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>5.55</v>
+        <v>2.25</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>3.58</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.92</v>
+        <v>2.85</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.25</v>
+        <v>5.55</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.58</v>
+        <v>1.56</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.89</v>
+        <v>1.35</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.31</v>
+        <v>1.43</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.5</v>
+        <v>5.18</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,32 +5580,32 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.27</v>
+        <v>5.07</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.43</v>
+        <v>2.31</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.18</v>
+        <v>3.5</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>5.07</v>
+        <v>3.27</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>7.71</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>7.42</v>
+        <v>3.54</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:21</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.08</v>
+        <v>5.24</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.31</v>
+        <v>5.81</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:29</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:21</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.24</v>
+        <v>3.08</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>5.81</v>
+        <v>3.31</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:29</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,190 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/inter-bologna/WE9vQnal/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-torino/EwaqP6Ef/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45206.86458333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:17</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:17</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:17</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-ac-milan/YTjyRSqr/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.14</v>
+        <v>1.38</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.19</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>19/08/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>05/07/2023 21:25</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>19/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>05/07/2023 21:26</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="R4" t="n">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.51</v>
+        <v>7.81</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
         </is>
       </c>
     </row>
@@ -849,46 +849,46 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>3.19</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:32</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.89</v>
+        <v>3.29</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -896,24 +896,24 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.3</v>
+        <v>2.31</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>7.81</v>
+        <v>2.51</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:44</t>
+          <t>20/08/2023 20:40</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:42</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:40</t>
+          <t>20/08/2023 20:44</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
         </is>
       </c>
     </row>
@@ -2045,62 +2045,62 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.74</v>
+        <v>4.58</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5.84</v>
+        <v>3.74</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.26</v>
+        <v>7.53</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>8.640000000000001</v>
+        <v>4.42</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:03</t>
+          <t>07/08/2023 14:02</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>27/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:26</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.16</v>
+        <v>4.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.99</v>
+        <v>3.31</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:26</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.94</v>
+        <v>4.16</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
         <v>4.27</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.25</v>
+        <v>3.96</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.8</v>
+        <v>4.48</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.02</v>
+        <v>3.76</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.19</v>
+        <v>3.66</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.58</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.85</v>
+        <v>1.9</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5.55</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.56</v>
+        <v>3.58</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.92</v>
+        <v>2.85</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>3.96</v>
+        <v>5.55</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="O56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="T56" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>27/09/2023 20:43</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.28</v>
+        <v>2.31</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.06</v>
+        <v>3.5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>6.79</v>
+        <v>3.27</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.32</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.970000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.89</v>
+        <v>1.35</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.31</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.5</v>
+        <v>5.18</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,32 +5764,32 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.27</v>
+        <v>5.07</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:21</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.24</v>
+        <v>3.08</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.81</v>
+        <v>3.31</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:29</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:21</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.08</v>
+        <v>5.24</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.31</v>
+        <v>5.81</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:29</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,282 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/genoa-ac-milan/YTjyRSqr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45207.52083333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:22</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>5</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:22</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-salernitana/SSNE9RE7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-atalanta/hUcmOQT0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-verona/Gl49V8yR/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.52</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>3.53</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>3.69</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.19</v>
+        <v>2.14</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>7.65</v>
+        <v>2.15</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.37</v>
+        <v>1.52</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.53</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.64</v>
+        <v>4.08</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.14</v>
+        <v>7.19</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.15</v>
+        <v>7.65</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:40</t>
+          <t>20/08/2023 20:44</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:44</t>
+          <t>20/08/2023 20:40</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:42</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="R26" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
         <v>4.27</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.96</v>
+        <v>5.55</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
       <c r="J55" t="n">
-        <v>5.55</v>
+        <v>3.96</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>5.06</v>
+        <v>5.18</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,32 +5580,32 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>6.79</v>
+        <v>5.07</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:43</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.31</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>3.54</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:44</t>
+          <t>27/09/2023 20:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.43</v>
+        <v>2.31</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.18</v>
+        <v>3.5</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>5.07</v>
+        <v>3.27</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>7.71</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>7.42</v>
+        <v>3.54</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:21</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.08</v>
+        <v>5.24</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.31</v>
+        <v>5.81</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:29</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:21</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.24</v>
+        <v>3.08</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>5.81</v>
+        <v>3.31</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:29</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.06</v>
+        <v>2.24</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:51</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.23</v>
+        <v>3.46</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:48</t>
+          <t>08/10/2023 14:51</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.92</v>
+        <v>3.56</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.59</v>
+        <v>3.48</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-atalanta/hUcmOQT0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-verona/Gl49V8yR/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,255 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-atalanta/hUcmOQT0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
         <v>1</v>
       </c>
-      <c r="J79" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:26</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:51</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:26</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:51</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:26</t>
-        </is>
-      </c>
-      <c r="T79" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:59</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-verona/Gl49V8yR/</t>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:27</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:27</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:27</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-as-roma/KMA0XU6E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45207.86458333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>27/09/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-fiorentina/tWBdYAi8/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.37</v>
+        <v>1.52</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.53</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.64</v>
+        <v>4.08</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.14</v>
+        <v>7.19</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.15</v>
+        <v>7.65</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.52</v>
+        <v>3.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>3.53</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>3.69</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.19</v>
+        <v>2.14</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>7.65</v>
+        <v>2.15</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,48 +2896,48 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="R27" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,98 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/napoli-fiorentina/tWBdYAi8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-napoli/v1lNz4D6/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.52</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>3.53</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>3.69</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.19</v>
+        <v>2.14</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>7.65</v>
+        <v>2.15</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.37</v>
+        <v>1.52</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.53</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.64</v>
+        <v>4.08</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.14</v>
+        <v>7.19</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.15</v>
+        <v>7.65</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
         <v>4.27</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
       <c r="J53" t="n">
-        <v>5.55</v>
+        <v>3.96</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.25</v>
+        <v>5.55</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.58</v>
+        <v>1.56</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
       <c r="J55" t="n">
-        <v>3.96</v>
+        <v>2.25</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.48</v>
+        <v>2.8</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.76</v>
+        <v>3.02</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.66</v>
+        <v>3.19</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.85</v>
+        <v>3.58</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.9</v>
+        <v>2.85</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,190 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/verona-napoli/v1lNz4D6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45220.75</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-inter/WzoFxQrf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45220.86458333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-lazio/hpnBw6Tm/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.37</v>
+        <v>1.52</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.53</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.64</v>
+        <v>4.08</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.14</v>
+        <v>7.19</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.15</v>
+        <v>7.65</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.52</v>
+        <v>3.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>3.53</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>3.69</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.19</v>
+        <v>2.14</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>7.65</v>
+        <v>2.15</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
         <v>4.27</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>5.1</v>
+        <v>3.34</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.91</v>
+        <v>3.34</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>8.19</v>
+        <v>2.58</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>7.88</v>
+        <v>2.36</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.34</v>
+        <v>5.1</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>4.91</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.58</v>
+        <v>8.19</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.36</v>
+        <v>7.88</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.96</v>
+        <v>5.55</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5.55</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.56</v>
+        <v>3.58</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.92</v>
+        <v>2.85</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
       <c r="J55" t="n">
-        <v>2.25</v>
+        <v>3.96</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.8</v>
+        <v>4.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.02</v>
+        <v>3.76</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.19</v>
+        <v>3.66</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.58</v>
+        <v>1.85</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.85</v>
+        <v>1.9</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="O56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="T56" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>27/09/2023 20:43</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.28</v>
+        <v>2.31</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.06</v>
+        <v>3.5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>6.79</v>
+        <v>3.27</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.32</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.970000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.89</v>
+        <v>1.35</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.31</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.5</v>
+        <v>5.18</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,32 +5764,32 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.27</v>
+        <v>5.07</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,650 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-lazio/hpnBw6Tm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45221.52083333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-monza/APrnqS5Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-genoa/M32iNpq7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45221.86458333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-juventus/G2qrp8jK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45222.77083333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:03</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-lecce/QcpJypb0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45222.86458333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-empoli/2auvolyE/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:44</t>
+          <t>20/08/2023 20:40</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:42</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:40</t>
+          <t>20/08/2023 20:44</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>5.55</v>
+        <v>2.25</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>3.58</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.92</v>
+        <v>2.85</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.25</v>
+        <v>3.96</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.8</v>
+        <v>4.48</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.02</v>
+        <v>3.76</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.19</v>
+        <v>3.66</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.58</v>
+        <v>1.85</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.85</v>
+        <v>1.9</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>3.96</v>
+        <v>5.55</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.43</v>
+        <v>4.05</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:22</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:25</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.89</v>
+        <v>1.85</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.35</v>
+        <v>2.01</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.97</v>
+        <v>2.31</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:22</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:25</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.01</v>
+        <v>3.35</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:21</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.24</v>
+        <v>3.08</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.81</v>
+        <v>3.31</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:29</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:21</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.08</v>
+        <v>5.24</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.31</v>
+        <v>5.81</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:29</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,926 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-empoli/2auvolyE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45226.86458333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:09</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:25</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:09</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:09</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-salernitana/n5fwsuzt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-bologna/lzv7zeJN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-torino/EHofwcZ4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45227.86458333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-verona/8KrnuJ4h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45228.52083333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:09</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:09</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:24</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:09</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-frosinone/MPwSZNSC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-udinese/h8pbxHlB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45228.75</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-as-roma/Qegstakn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45228.86458333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-ac-milan/Aqu3yy4H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45229.77083333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:11</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-atalanta/0GxWYsrJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45229.86458333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-fiorentina/KfnjvwKb/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:40</t>
+          <t>20/08/2023 20:44</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:44</t>
+          <t>20/08/2023 20:40</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:42</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
         <v>4.27</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.34</v>
+        <v>5.1</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.34</v>
+        <v>4.91</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.58</v>
+        <v>8.19</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.36</v>
+        <v>7.88</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>5.1</v>
+        <v>3.34</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.91</v>
+        <v>3.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>8.19</v>
+        <v>2.58</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>7.88</v>
+        <v>2.36</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.25</v>
+        <v>5.55</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.58</v>
+        <v>1.56</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>3.96</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.48</v>
+        <v>2.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.76</v>
+        <v>3.02</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.66</v>
+        <v>3.19</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.85</v>
+        <v>3.58</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.9</v>
+        <v>2.85</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
       <c r="J55" t="n">
-        <v>5.55</v>
+        <v>3.96</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.97</v>
+        <v>2.31</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:22</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:25</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.01</v>
+        <v>3.35</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.43</v>
+        <v>4.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:22</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:25</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.89</v>
+        <v>1.85</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.35</v>
+        <v>2.01</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:21</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.08</v>
+        <v>5.24</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.31</v>
+        <v>5.81</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:29</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:21</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.24</v>
+        <v>3.08</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>5.81</v>
+        <v>3.31</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:29</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,98 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/lazio-fiorentina/KfnjvwKb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45233.86458333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:02</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:02</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:31</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:02</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:31</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-lazio/KIUxVYto/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,46 +757,46 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>3.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:32</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.89</v>
+        <v>3.29</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -804,24 +804,24 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.3</v>
+        <v>2.31</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7.81</v>
+        <v>2.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.14</v>
+        <v>1.38</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.19</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>19/08/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>05/07/2023 21:25</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>19/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>05/07/2023 21:26</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="R5" t="n">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.51</v>
+        <v>7.81</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="R26" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.99</v>
+        <v>3.31</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:26</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.94</v>
+        <v>4.16</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:26</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.16</v>
+        <v>4.94</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
       <c r="J53" t="n">
-        <v>5.55</v>
+        <v>3.96</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.25</v>
+        <v>5.55</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.58</v>
+        <v>1.56</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
       <c r="J55" t="n">
-        <v>3.96</v>
+        <v>2.25</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.48</v>
+        <v>2.8</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.76</v>
+        <v>3.02</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.66</v>
+        <v>3.19</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.85</v>
+        <v>3.58</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.9</v>
+        <v>2.85</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -9838,6 +9838,282 @@
       <c r="V102" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/bologna-lazio/KIUxVYto/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-napoli/U7EukfYG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45234.75</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:49</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:50</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-inter/rcwBZEYT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45234.86458333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-udinese/YuLWjG34/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5.55</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.56</v>
+        <v>3.58</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.92</v>
+        <v>2.85</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,63 +5457,63 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>2.25</v>
+        <v>5.55</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.58</v>
+        <v>1.56</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,98 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-udinese/YuLWjG34/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45235.52083333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-monza/2LCmmY2T/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>6.65</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.34</v>
+        <v>6.36</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:16</t>
+          <t>19/08/2023 18:29</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.23</v>
+        <v>4.77</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:14</t>
+          <t>19/08/2023 18:28</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.45</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.3</v>
+        <v>1.56</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:23</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-verona/neB9SQ2d/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-napoli/OCfhiAuc/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
       <c r="J3" t="n">
-        <v>6.65</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6.36</v>
+        <v>2.34</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:29</t>
+          <t>19/08/2023 18:16</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.77</v>
+        <v>3.23</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:28</t>
+          <t>19/08/2023 18:14</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>3.45</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>3.3</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:23</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-napoli/OCfhiAuc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-verona/neB9SQ2d/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.14</v>
+        <v>1.38</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.19</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>19/08/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>05/07/2023 21:25</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>19/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>05/07/2023 21:26</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="R4" t="n">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.51</v>
+        <v>7.81</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
         </is>
       </c>
     </row>
@@ -849,46 +849,46 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>3.19</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:32</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.89</v>
+        <v>3.29</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -896,24 +896,24 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.3</v>
+        <v>2.31</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>7.81</v>
+        <v>2.51</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,48 +2896,48 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="R27" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.96</v>
+        <v>5.55</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
       <c r="J55" t="n">
-        <v>5.55</v>
+        <v>3.96</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>5.06</v>
+        <v>5.18</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,32 +5580,32 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>6.79</v>
+        <v>5.07</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:43</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.31</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>3.54</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:44</t>
+          <t>27/09/2023 20:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.43</v>
+        <v>2.31</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.18</v>
+        <v>3.5</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>5.07</v>
+        <v>3.27</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>7.71</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>7.42</v>
+        <v>3.54</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:21</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.24</v>
+        <v>3.08</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.81</v>
+        <v>3.31</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:29</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:21</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.08</v>
+        <v>5.24</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.31</v>
+        <v>5.81</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:29</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -10206,6 +10206,282 @@
       <c r="V106" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/verona-monza/2LCmmY2T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-genoa/MN8LgIJo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45235.75</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-lecce/G4AyjzJA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45235.86458333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-juventus/0E7PhxZi/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.28</v>
+        <v>2.31</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.06</v>
+        <v>3.5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>6.79</v>
+        <v>3.27</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.32</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.970000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,48 +5748,48 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.31</v>
+        <v>1.28</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N58" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="R58" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S58" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P58" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
       <c r="T58" t="n">
-        <v>3.54</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:44</t>
+          <t>27/09/2023 20:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,190 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-juventus/0E7PhxZi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45236.77083333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:04</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-empoli/fkMSidlb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45236.86458333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-sassuolo/OUDqlEmN/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
       <c r="J2" t="n">
-        <v>6.65</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6.36</v>
+        <v>2.34</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:29</t>
+          <t>19/08/2023 18:16</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.77</v>
+        <v>3.23</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:28</t>
+          <t>19/08/2023 18:14</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>3.45</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.56</v>
+        <v>3.3</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:23</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-napoli/OCfhiAuc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-verona/neB9SQ2d/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>6.65</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.34</v>
+        <v>6.36</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:16</t>
+          <t>19/08/2023 18:29</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.23</v>
+        <v>4.77</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:14</t>
+          <t>19/08/2023 18:28</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.45</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.3</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:23</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-verona/neB9SQ2d/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-napoli/OCfhiAuc/</t>
         </is>
       </c>
     </row>
@@ -757,46 +757,46 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>3.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:32</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.89</v>
+        <v>3.29</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -804,24 +804,24 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.3</v>
+        <v>2.31</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7.81</v>
+        <v>2.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.14</v>
+        <v>1.38</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.19</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>19/08/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>05/07/2023 21:25</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>19/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>05/07/2023 21:26</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="R5" t="n">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.51</v>
+        <v>7.81</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="R26" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:26</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.16</v>
+        <v>4.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.99</v>
+        <v>3.31</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:26</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.94</v>
+        <v>4.16</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>5.55</v>
+        <v>2.25</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>3.58</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.92</v>
+        <v>2.85</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.25</v>
+        <v>5.55</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.58</v>
+        <v>1.56</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.31</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>3.54</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:44</t>
+          <t>27/09/2023 20:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.28</v>
+        <v>2.31</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.06</v>
+        <v>3.5</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>6.79</v>
+        <v>3.27</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>6.32</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>9.970000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.43</v>
+        <v>4.05</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:22</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:25</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.89</v>
+        <v>1.85</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.35</v>
+        <v>2.01</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.97</v>
+        <v>2.31</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:22</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:25</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.01</v>
+        <v>3.35</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,190 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/torino-sassuolo/OUDqlEmN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45240.77083333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-salernitana/z9JgdBup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45240.86458333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-verona/z9s26e3i/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.14</v>
+        <v>1.38</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.19</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>19/08/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>05/07/2023 21:25</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>19/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>05/07/2023 21:26</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="R4" t="n">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.51</v>
+        <v>7.81</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
         </is>
       </c>
     </row>
@@ -849,46 +849,46 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>3.19</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:32</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.89</v>
+        <v>3.29</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -896,24 +896,24 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.3</v>
+        <v>2.31</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>7.81</v>
+        <v>2.51</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:44</t>
+          <t>20/08/2023 20:40</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:42</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:40</t>
+          <t>20/08/2023 20:44</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,48 +2896,48 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="R27" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.16</v>
+        <v>2.47</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>17/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="R36" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>29/08/2023 08:54</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:59</t>
-        </is>
-      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
         </is>
       </c>
     </row>
@@ -3793,62 +3793,62 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.47</v>
+        <v>3.16</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>17/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>29/08/2023 08:54</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:49</t>
-        </is>
-      </c>
       <c r="R37" t="n">
-        <v>3.76</v>
+        <v>2.51</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.17</v>
+        <v>2.35</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>5.1</v>
+        <v>3.34</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.91</v>
+        <v>3.34</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>8.19</v>
+        <v>2.58</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>7.88</v>
+        <v>2.36</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.34</v>
+        <v>5.1</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>4.91</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.58</v>
+        <v>8.19</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.36</v>
+        <v>7.88</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.25</v>
+        <v>5.55</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.58</v>
+        <v>1.56</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5.55</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.56</v>
+        <v>3.58</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.92</v>
+        <v>2.85</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,282 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/genoa-verona/z9s26e3i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-ac-milan/xYwJ2D2G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45241.75</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:38</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-cagliari/U7zB4ZX3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45241.86458333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:33</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-torino/GOxN1XHM/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11129,6 +11129,98 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45242.52083333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:39</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:24</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>10</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:24</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-empoli/bmSR0iXS/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,46 +757,46 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>3.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:32</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.89</v>
+        <v>3.29</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -804,24 +804,24 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.3</v>
+        <v>2.31</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7.81</v>
+        <v>2.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.14</v>
+        <v>1.38</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.19</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>19/08/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>05/07/2023 21:25</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>19/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>05/07/2023 21:26</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="R5" t="n">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.51</v>
+        <v>7.81</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:40</t>
+          <t>20/08/2023 20:44</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:44</t>
+          <t>20/08/2023 20:40</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:42</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>27/08/2023 18:28</t>
+          <t>27/08/2023 18:29</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>3.97</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.92</v>
+        <v>3.86</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>27/08/2023 18:28</t>
+          <t>27/08/2023 18:29</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.97</v>
+        <v>5.88</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.44</v>
+        <v>5.17</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>27/08/2023 18:28</t>
+          <t>27/08/2023 18:29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-lecce/Wt6gSH8D/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-bologna/OzgujL0K/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>27/08/2023 18:29</t>
+          <t>27/08/2023 18:28</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.97</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>27/08/2023 18:29</t>
+          <t>27/08/2023 18:28</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.88</v>
+        <v>5.97</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.17</v>
+        <v>5.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>27/08/2023 18:29</t>
+          <t>27/08/2023 18:28</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-bologna/OzgujL0K/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-lecce/Wt6gSH8D/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
         <v>4.27</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -3701,62 +3701,62 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.47</v>
+        <v>3.16</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>17/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>29/08/2023 08:54</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:49</t>
-        </is>
-      </c>
       <c r="R36" t="n">
-        <v>3.76</v>
+        <v>2.51</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.17</v>
+        <v>2.35</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.16</v>
+        <v>2.47</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>17/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="R37" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>29/08/2023 08:54</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:59</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
       <c r="J53" t="n">
-        <v>5.55</v>
+        <v>3.96</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.25</v>
+        <v>5.55</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.58</v>
+        <v>1.56</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
       <c r="J55" t="n">
-        <v>3.96</v>
+        <v>2.25</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.48</v>
+        <v>2.8</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.76</v>
+        <v>3.02</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.66</v>
+        <v>3.19</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.85</v>
+        <v>3.58</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.9</v>
+        <v>2.85</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.97</v>
+        <v>2.31</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:22</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:25</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.01</v>
+        <v>3.35</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.43</v>
+        <v>4.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:22</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:25</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.89</v>
+        <v>1.85</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.35</v>
+        <v>2.01</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:21</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.08</v>
+        <v>5.24</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.31</v>
+        <v>5.81</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:29</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:21</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.24</v>
+        <v>3.08</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>5.81</v>
+        <v>3.31</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:29</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
         </is>
       </c>
     </row>
@@ -11218,6 +11218,374 @@
       <c r="V117" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/napoli-empoli/bmSR0iXS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:34</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:16</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:34</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-atalanta/rFfGrhBp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:20</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-bologna/M5gKsCQj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45242.75</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:49</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:49</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-as-roma/8bZE3gmA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45242.86458333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:56</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>16</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-frosinone/nqo65FIc/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.28</v>
+        <v>2.31</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.06</v>
+        <v>3.5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>6.79</v>
+        <v>3.27</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.32</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.970000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,48 +5748,48 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.31</v>
+        <v>1.28</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N58" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="R58" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S58" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P58" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
       <c r="T58" t="n">
-        <v>3.54</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:44</t>
+          <t>27/09/2023 20:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>3.25</v>
+        <v>1.86</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.53</v>
+        <v>2.04</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:34</t>
+          <t>12/11/2023 14:20</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.45</v>
+        <v>3.71</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.46</v>
+        <v>3.47</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:16</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.26</v>
+        <v>4.26</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.2</v>
+        <v>3.98</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:34</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-atalanta/rFfGrhBp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-bologna/M5gKsCQj/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.86</v>
+        <v>3.25</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.04</v>
+        <v>3.53</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:20</t>
+          <t>12/11/2023 14:34</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.71</v>
+        <v>3.45</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:16</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.26</v>
+        <v>2.26</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.98</v>
+        <v>2.2</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:34</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-bologna/M5gKsCQj/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-atalanta/rFfGrhBp/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,650 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/inter-frosinone/nqo65FIc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-lazio/8x6P9U9q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45255.75</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-napoli/UVIceVfj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45255.86458333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-fiorentina/xfFgFjnM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45256.52083333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-monza/8ENxJYnc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>3</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-sassuolo/n5MtIh23/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-genoa/tSLpHCH9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45256.75</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>3</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:32</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:32</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>6</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-udinese/GpEcEA1S/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12233,6 +12233,98 @@
         </is>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45256.86458333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>26/11/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>26/11/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>26/11/2023 20:38</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-inter/fVPlGWWF/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.14</v>
+        <v>1.38</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.19</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>19/08/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>05/07/2023 21:25</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>19/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>05/07/2023 21:26</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="R4" t="n">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/07/2023 21:26</t>
+          <t>05/07/2023 21:25</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.51</v>
+        <v>7.81</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
         </is>
       </c>
     </row>
@@ -849,46 +849,46 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>3.19</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:32</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.89</v>
+        <v>3.29</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -896,24 +896,24 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.3</v>
+        <v>2.31</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/07/2023 21:25</t>
+          <t>05/07/2023 21:26</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>7.81</v>
+        <v>2.51</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-monza/dQh0klA9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-fiorentina/23gdjUf3/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.52</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>3.53</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>3.69</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.19</v>
+        <v>2.14</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>7.65</v>
+        <v>2.15</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.37</v>
+        <v>1.52</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.53</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.64</v>
+        <v>4.08</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.14</v>
+        <v>7.19</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.15</v>
+        <v>7.65</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>27/08/2023 18:29</t>
+          <t>27/08/2023 18:28</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.97</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>27/08/2023 18:29</t>
+          <t>27/08/2023 18:28</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.88</v>
+        <v>5.97</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.17</v>
+        <v>5.44</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>27/08/2023 18:29</t>
+          <t>27/08/2023 18:28</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-bologna/OzgujL0K/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-lecce/Wt6gSH8D/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>27/08/2023 18:28</t>
+          <t>27/08/2023 18:29</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.97</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.92</v>
+        <v>3.86</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>27/08/2023 18:28</t>
+          <t>27/08/2023 18:29</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.97</v>
+        <v>5.88</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.44</v>
+        <v>5.17</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>27/08/2023 18:28</t>
+          <t>27/08/2023 18:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-lecce/Wt6gSH8D/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-bologna/OzgujL0K/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:03</t>
+          <t>07/08/2023 14:02</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>27/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
         </is>
       </c>
     </row>
@@ -2137,62 +2137,62 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>5.74</v>
+        <v>4.58</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>5.84</v>
+        <v>3.74</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.26</v>
+        <v>7.53</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8.640000000000001</v>
+        <v>4.42</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="O56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="T56" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>27/09/2023 20:43</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.06</v>
+        <v>5.18</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,32 +5764,32 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>6.79</v>
+        <v>5.07</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:43</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.43</v>
+        <v>4.05</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:22</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:25</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.89</v>
+        <v>1.85</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.35</v>
+        <v>2.01</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.97</v>
+        <v>2.31</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:22</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:25</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.01</v>
+        <v>3.35</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -12322,6 +12322,190 @@
       <c r="V129" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/juventus-inter/fVPlGWWF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45257.77083333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:15</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-lecce/nT4T8lPk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45257.86458333334</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>27/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>27/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>27/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-torino/8MH1fkAd/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>6.65</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.34</v>
+        <v>6.36</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:16</t>
+          <t>19/08/2023 18:29</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.23</v>
+        <v>4.77</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:14</t>
+          <t>19/08/2023 18:28</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.45</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.3</v>
+        <v>1.56</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:23</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-verona/neB9SQ2d/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-napoli/OCfhiAuc/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
       <c r="J3" t="n">
-        <v>6.65</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6.36</v>
+        <v>2.34</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:29</t>
+          <t>19/08/2023 18:16</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.77</v>
+        <v>3.23</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:28</t>
+          <t>19/08/2023 18:14</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>3.45</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>3.3</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:23</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-napoli/OCfhiAuc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-verona/neB9SQ2d/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.37</v>
+        <v>1.52</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.53</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.64</v>
+        <v>4.08</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.14</v>
+        <v>7.19</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.15</v>
+        <v>7.65</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.52</v>
+        <v>3.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>3.53</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>3.69</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.19</v>
+        <v>2.14</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>7.65</v>
+        <v>2.15</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
         </is>
       </c>
     </row>
@@ -2045,62 +2045,62 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.74</v>
+        <v>4.58</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5.84</v>
+        <v>3.74</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.26</v>
+        <v>7.53</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>8.640000000000001</v>
+        <v>4.42</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:03</t>
+          <t>07/08/2023 14:02</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>27/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.99</v>
+        <v>3.31</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:26</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.94</v>
+        <v>4.16</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:26</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.16</v>
+        <v>4.94</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
         <v>4.27</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.34</v>
+        <v>5.1</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.34</v>
+        <v>4.91</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.58</v>
+        <v>8.19</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.36</v>
+        <v>7.88</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>5.1</v>
+        <v>3.34</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.91</v>
+        <v>3.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>8.19</v>
+        <v>2.58</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>7.88</v>
+        <v>2.36</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.96</v>
+        <v>5.55</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5.55</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.56</v>
+        <v>3.58</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.92</v>
+        <v>2.85</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
       <c r="J55" t="n">
-        <v>2.25</v>
+        <v>3.96</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.8</v>
+        <v>4.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.02</v>
+        <v>3.76</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.19</v>
+        <v>3.66</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.58</v>
+        <v>1.85</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.85</v>
+        <v>1.9</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -12506,6 +12506,98 @@
       <c r="V131" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/bologna-torino/8MH1fkAd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45261.86458333334</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:07</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-juventus/EXHeCNVs/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V132"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>2</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
       <c r="J78" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>01/10/2023 20:26</t>
+          <t>27/09/2023 23:02</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.24</v>
+        <v>3.06</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:51</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.36</v>
+        <v>3.53</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>01/10/2023 20:26</t>
+          <t>27/09/2023 23:02</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:51</t>
+          <t>08/10/2023 14:48</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.56</v>
+        <v>2.92</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>01/10/2023 20:26</t>
+          <t>27/09/2023 23:02</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.48</v>
+        <v>2.59</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-verona/Gl49V8yR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-atalanta/hUcmOQT0/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.06</v>
+        <v>2.24</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.23</v>
+        <v>3.46</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 14:48</t>
+          <t>08/10/2023 14:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.92</v>
+        <v>3.56</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.59</v>
+        <v>3.48</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-atalanta/hUcmOQT0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-verona/Gl49V8yR/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -12598,6 +12598,98 @@
       <c r="V132" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/monza-juventus/EXHeCNVs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-empoli/SxDy7Sg2/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
       <c r="J2" t="n">
-        <v>6.65</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6.36</v>
+        <v>2.34</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:29</t>
+          <t>19/08/2023 18:16</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.77</v>
+        <v>3.23</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:28</t>
+          <t>19/08/2023 18:14</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>3.45</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.56</v>
+        <v>3.3</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>19/08/2023 18:23</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-napoli/OCfhiAuc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-verona/neB9SQ2d/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>6.65</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.34</v>
+        <v>6.36</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:16</t>
+          <t>19/08/2023 18:29</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.23</v>
+        <v>4.77</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:14</t>
+          <t>19/08/2023 18:28</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.45</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.3</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:23</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-verona/neB9SQ2d/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-napoli/OCfhiAuc/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.52</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>3.53</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>3.69</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.19</v>
+        <v>2.14</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>7.65</v>
+        <v>2.15</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.37</v>
+        <v>1.52</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.53</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.64</v>
+        <v>4.08</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.14</v>
+        <v>7.19</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.15</v>
+        <v>7.65</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:03</t>
+          <t>07/08/2023 14:02</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>27/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
         </is>
       </c>
     </row>
@@ -2137,62 +2137,62 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>5.74</v>
+        <v>4.58</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>5.84</v>
+        <v>3.74</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.26</v>
+        <v>7.53</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8.640000000000001</v>
+        <v>4.42</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:26</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.16</v>
+        <v>4.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>03/09/2023 18:29</t>
+          <t>03/09/2023 18:09</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.99</v>
+        <v>3.31</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:26</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.94</v>
+        <v>4.16</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 18:09</t>
+          <t>03/09/2023 18:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-fiorentina/rilF2bpQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-genoa/UBScfzh6/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.85</v>
+        <v>4.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.01</v>
+        <v>5.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:40</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.75</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.27</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:42</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>03/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
         <v>4.27</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>03/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-juventus/p6VB3vVJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-salernitana/0WzsbIhs/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>5.1</v>
+        <v>3.34</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.91</v>
+        <v>3.34</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>8.19</v>
+        <v>2.58</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>7.88</v>
+        <v>2.36</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.34</v>
+        <v>5.1</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>4.91</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.58</v>
+        <v>8.19</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.36</v>
+        <v>7.88</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
       <c r="J53" t="n">
-        <v>5.55</v>
+        <v>3.96</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>3.96</v>
+        <v>5.55</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.97</v>
+        <v>2.31</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:22</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:25</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.01</v>
+        <v>3.35</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.43</v>
+        <v>4.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:22</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:25</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.89</v>
+        <v>1.85</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.35</v>
+        <v>2.01</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.06</v>
+        <v>2.24</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:51</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.23</v>
+        <v>3.46</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:48</t>
+          <t>08/10/2023 14:51</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.92</v>
+        <v>3.56</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.59</v>
+        <v>3.48</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-atalanta/hUcmOQT0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-verona/Gl49V8yR/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
       <c r="J79" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>01/10/2023 20:26</t>
+          <t>27/09/2023 23:02</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.24</v>
+        <v>3.06</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 14:51</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.36</v>
+        <v>3.53</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>01/10/2023 20:26</t>
+          <t>27/09/2023 23:02</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 14:51</t>
+          <t>08/10/2023 14:48</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.56</v>
+        <v>2.92</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>01/10/2023 20:26</t>
+          <t>27/09/2023 23:02</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.48</v>
+        <v>2.59</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-verona/Gl49V8yR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-atalanta/hUcmOQT0/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.52</v>
+        <v>3.24</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,32 +12020,32 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.55</v>
+        <v>3.22</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="R126" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T126" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:59</t>
-        </is>
-      </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-sassuolo/n5MtIh23/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-genoa/tSLpHCH9/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J127" t="n">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.22</v>
+        <v>3.55</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 14:57</t>
+          <t>26/11/2023 14:59</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.91</v>
+        <v>2.51</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.18</v>
+        <v>2.69</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-genoa/tSLpHCH9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-sassuolo/n5MtIh23/</t>
         </is>
       </c>
     </row>
@@ -12690,6 +12690,190 @@
       <c r="V133" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/genoa-empoli/SxDy7Sg2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45262.75</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-cagliari/tt1JVBW2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45262.86458333334</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-frosinone/x8fSTk1F/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:V161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,62 +2045,62 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.74</v>
+        <v>4.58</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5.84</v>
+        <v>3.74</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>27/08/2023 20:43</t>
+          <t>27/08/2023 20:44</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.26</v>
+        <v>7.53</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/08/2023 14:02</t>
+          <t>07/08/2023 14:03</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>8.640000000000001</v>
+        <v>4.42</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 14:03</t>
+          <t>07/08/2023 14:02</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>27/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>07/08/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>27/08/2023 20:44</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>07/08/2023 14:03</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>27/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-genoa/4nAxkuGQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-sassuolo/ELaCrwgf/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="R26" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.34</v>
+        <v>5.1</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.34</v>
+        <v>4.91</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.58</v>
+        <v>8.19</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.36</v>
+        <v>7.88</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>5.1</v>
+        <v>3.34</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.91</v>
+        <v>3.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>8.19</v>
+        <v>2.58</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>7.88</v>
+        <v>2.36</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.96</v>
+        <v>5.55</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
       <c r="J55" t="n">
-        <v>5.55</v>
+        <v>3.96</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>5.06</v>
+        <v>5.18</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,32 +5580,32 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>6.79</v>
+        <v>5.07</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:43</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.31</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>3.54</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:44</t>
+          <t>27/09/2023 20:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.43</v>
+        <v>2.31</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.18</v>
+        <v>3.5</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>5.07</v>
+        <v>3.27</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>7.71</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>7.42</v>
+        <v>3.54</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.86</v>
+        <v>3.25</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.04</v>
+        <v>3.53</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:20</t>
+          <t>12/11/2023 14:34</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.71</v>
+        <v>3.45</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:16</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.26</v>
+        <v>2.26</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.98</v>
+        <v>2.2</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:34</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-bologna/M5gKsCQj/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-atalanta/rFfGrhBp/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>3.25</v>
+        <v>1.86</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.53</v>
+        <v>2.04</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:34</t>
+          <t>12/11/2023 14:20</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.45</v>
+        <v>3.71</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.46</v>
+        <v>3.47</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:16</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.26</v>
+        <v>4.26</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.2</v>
+        <v>3.98</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:34</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-atalanta/rFfGrhBp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-bologna/M5gKsCQj/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J126" t="n">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.22</v>
+        <v>3.55</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>26/11/2023 14:57</t>
+          <t>26/11/2023 14:59</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.91</v>
+        <v>2.51</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.18</v>
+        <v>2.69</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-genoa/tSLpHCH9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-sassuolo/n5MtIh23/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.52</v>
+        <v>3.24</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,32 +12112,32 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.55</v>
+        <v>3.22</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="R127" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T127" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:59</t>
-        </is>
-      </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-sassuolo/n5MtIh23/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-genoa/tSLpHCH9/</t>
         </is>
       </c>
     </row>
@@ -12874,6 +12874,2398 @@
       <c r="V135" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-frosinone/x8fSTk1F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45263.52083333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:22</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-bologna/KWaNUVo9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-salernitana/UifY78vd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:22</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-verona/rD9C8uV6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45263.75</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:54</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-as-roma/McL3A10f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45263.86458333334</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-inter/8fHaBsol/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45264.86458333334</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>3</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>3</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-atalanta/4MA89LF0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45268.86458333334</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-napoli/ryOz99tm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-lazio/p0Ki5RuC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45269.75</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>3</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-ac-milan/jw9G7apD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45269.86458333334</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>4</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:30</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:30</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-udinese/4pPW9kRt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45270.52083333334</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-torino/n5x5EVIP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-genoa/0CIu8Teg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45270.75</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-bologna/YPGm67Q5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45270.86458333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-fiorentina/v3Hq7mBa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45271.77083333334</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:16</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:16</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:16</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-lecce/Y1Y0FB3J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45271.86458333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>11/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>11/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>11/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-sassuolo/UT7K6JaJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45275.86458333334</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-juventus/dvlAN8et/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-frosinone/h6sJLnQh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45276.75</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-cagliari/QJuRJQf5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45276.86458333334</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:31</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-empoli/htCNIpAB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45277.52083333334</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>3</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>6</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-monza/nTtNK6ua/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-verona/fV1rSlmP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-sassuolo/WWARH4PH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45277.75</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-as-roma/6F8035AO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45277.86458333334</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-inter/v3wFMSAn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45278.86458333334</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>4</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>18/12/2023 19:07</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-salernitana/SO9d4oeI/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V161"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.37</v>
+        <v>1.52</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.53</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.64</v>
+        <v>4.08</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.14</v>
+        <v>7.19</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.15</v>
+        <v>7.65</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20/08/2023 18:29</t>
+          <t>20/08/2023 18:27</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.52</v>
+        <v>3.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>3.53</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>3.69</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.19</v>
+        <v>2.14</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>7.65</v>
+        <v>2.15</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20/08/2023 18:27</t>
+          <t>20/08/2023 18:29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-salernitana/lbAYWufr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-atalanta/Sl9xWa9l/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:42</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.04</v>
+        <v>6.1</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,48 +2896,48 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>02/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>20/08/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>02/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="R27" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>20/08/2023 09:02</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>20/08/2023 09:02</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-monza/4AhPuywD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-lazio/vNZpcx8m/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>3.25</v>
+        <v>1.86</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.53</v>
+        <v>2.04</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:34</t>
+          <t>12/11/2023 14:20</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.45</v>
+        <v>3.71</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.46</v>
+        <v>3.47</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:16</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.26</v>
+        <v>4.26</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.2</v>
+        <v>3.98</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:34</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-atalanta/rFfGrhBp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-bologna/M5gKsCQj/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.86</v>
+        <v>3.25</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.04</v>
+        <v>3.53</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:20</t>
+          <t>12/11/2023 14:34</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.71</v>
+        <v>3.45</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:16</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.26</v>
+        <v>2.26</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.98</v>
+        <v>2.2</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:34</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-bologna/M5gKsCQj/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-atalanta/rFfGrhBp/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.52</v>
+        <v>3.24</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,32 +12020,32 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.55</v>
+        <v>3.22</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="R126" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T126" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:59</t>
-        </is>
-      </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-sassuolo/n5MtIh23/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-genoa/tSLpHCH9/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J127" t="n">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.22</v>
+        <v>3.55</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 14:57</t>
+          <t>26/11/2023 14:59</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.91</v>
+        <v>2.51</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.18</v>
+        <v>2.69</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-genoa/tSLpHCH9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-sassuolo/n5MtIh23/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,14 +13001,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.43</v>
+        <v>1.84</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>03/12/2023 14:49</t>
+          <t>03/12/2023 14:22</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>4.53</v>
+        <v>3.61</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.88</v>
+        <v>3.63</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>03/12/2023 14:52</t>
+          <t>03/12/2023 14:56</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>6.92</v>
+        <v>4.82</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>7.95</v>
+        <v>4.74</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>03/12/2023 14:57</t>
+          <t>03/12/2023 14:56</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-salernitana/UifY78vd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-verona/rD9C8uV6/</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -13093,14 +13093,14 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>03/12/2023 14:22</t>
+          <t>03/12/2023 14:49</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.61</v>
+        <v>4.53</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.63</v>
+        <v>4.88</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>03/12/2023 14:56</t>
+          <t>03/12/2023 14:52</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>4.82</v>
+        <v>6.92</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>4.74</v>
+        <v>7.95</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>03/12/2023 14:56</t>
+          <t>03/12/2023 14:57</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-verona/rD9C8uV6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-salernitana/UifY78vd/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>1.47</v>
+        <v>2.14</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.5</v>
+        <v>2.53</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>17/12/2023 14:59</t>
+          <t>17/12/2023 14:55</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>4.28</v>
+        <v>3.54</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.45</v>
+        <v>3.44</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>17/12/2023 14:59</t>
+          <t>17/12/2023 14:53</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>6.17</v>
+        <v>3.17</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>7.06</v>
+        <v>2.93</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>17/12/2023 14:59</t>
+          <t>17/12/2023 14:55</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-verona/fV1rSlmP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-sassuolo/WWARH4PH/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>2.14</v>
+        <v>1.47</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.53</v>
+        <v>1.5</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>17/12/2023 14:55</t>
+          <t>17/12/2023 14:59</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.54</v>
+        <v>4.28</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.44</v>
+        <v>4.45</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>17/12/2023 14:53</t>
+          <t>17/12/2023 14:59</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>3.17</v>
+        <v>6.17</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>2.93</v>
+        <v>7.06</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>17/12/2023 14:55</t>
+          <t>17/12/2023 14:59</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-sassuolo/WWARH4PH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-verona/fV1rSlmP/</t>
         </is>
       </c>
     </row>
@@ -15266,6 +15266,374 @@
       <c r="V161" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-salernitana/SO9d4oeI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45282.77083333334</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>2</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>22/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-lazio/ImZ8Us9N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45282.77083333334</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-genoa/jyrhYP9b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45282.86458333334</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-ac-milan/CpqlZ5fh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45282.86458333334</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:37</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-fiorentina/4KutySPu/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:V181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.16</v>
+        <v>2.47</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>17/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="R36" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>29/08/2023 08:54</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:59</t>
-        </is>
-      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
         </is>
       </c>
     </row>
@@ -3793,62 +3793,62 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.47</v>
+        <v>3.16</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>17/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>29/08/2023 08:54</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:49</t>
-        </is>
-      </c>
       <c r="R37" t="n">
-        <v>3.76</v>
+        <v>2.51</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.17</v>
+        <v>2.35</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>27/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="O56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>17/09/2023 09:02</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="T56" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>27/09/2023 20:43</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.28</v>
+        <v>2.31</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:42</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.06</v>
+        <v>3.5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>6.79</v>
+        <v>3.27</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.32</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.970000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/09/2023 20:43</t>
+          <t>27/09/2023 20:44</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-sassuolo/0hSu7Yh9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.89</v>
+        <v>1.35</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.31</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.5</v>
+        <v>5.18</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,32 +5764,32 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.27</v>
+        <v>5.07</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>27/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>27/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-torino/8IVm5CNL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-udinese/hj7Kajoq/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J126" t="n">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.22</v>
+        <v>3.55</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>26/11/2023 14:57</t>
+          <t>26/11/2023 14:59</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.91</v>
+        <v>2.51</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.18</v>
+        <v>2.69</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-genoa/tSLpHCH9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-sassuolo/n5MtIh23/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.52</v>
+        <v>3.24</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,32 +12112,32 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.55</v>
+        <v>3.22</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="R127" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T127" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:59</t>
-        </is>
-      </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-sassuolo/n5MtIh23/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-genoa/tSLpHCH9/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,14 +13001,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>03/12/2023 14:22</t>
+          <t>03/12/2023 14:49</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.61</v>
+        <v>4.53</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.63</v>
+        <v>4.88</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>03/12/2023 14:56</t>
+          <t>03/12/2023 14:52</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>4.82</v>
+        <v>6.92</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>4.74</v>
+        <v>7.95</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>03/12/2023 14:56</t>
+          <t>03/12/2023 14:57</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-verona/rD9C8uV6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-salernitana/UifY78vd/</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -13093,14 +13093,14 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.43</v>
+        <v>1.84</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>03/12/2023 14:49</t>
+          <t>03/12/2023 14:22</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>4.53</v>
+        <v>3.61</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>4.88</v>
+        <v>3.63</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>03/12/2023 14:52</t>
+          <t>03/12/2023 14:56</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>6.92</v>
+        <v>4.82</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>7.95</v>
+        <v>4.74</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>03/12/2023 14:57</t>
+          <t>03/12/2023 14:56</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-salernitana/UifY78vd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-verona/rD9C8uV6/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>5.3</v>
+        <v>2.77</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,48 +15500,48 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>6.64</v>
+        <v>2.89</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
+          <t>22/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
           <t>22/12/2023 20:44</t>
         </is>
       </c>
-      <c r="N164" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O164" t="inlineStr">
+      <c r="R164" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S164" t="inlineStr">
         <is>
           <t>10/12/2023 10:02</t>
         </is>
       </c>
-      <c r="P164" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>22/12/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R164" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S164" t="inlineStr">
-        <is>
-          <t>10/12/2023 10:02</t>
-        </is>
-      </c>
       <c r="T164" t="n">
-        <v>1.49</v>
+        <v>2.63</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>22/12/2023 20:43</t>
+          <t>22/12/2023 20:37</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-ac-milan/CpqlZ5fh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-fiorentina/4KutySPu/</t>
         </is>
       </c>
     </row>
@@ -15569,71 +15569,1543 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-ac-milan/CpqlZ5fh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45283.52083333334</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:20</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:20</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-juventus/QgAVGOvO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45283.625</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-udinese/YaXdXqP4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45283.625</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-atalanta/vcz5VNgH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45283.75</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>23/12/2023 17:40</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>23/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>23/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-lecce/vcEZFrfU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45283.75</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>23/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>23/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>23/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-cagliari/pzy1W3vB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45283.86458333334</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>23/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>23/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>23/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/as-roma-napoli/rBvpznun/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45289.77083333334</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-torino/jy4Nm59o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45289.77083333334</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
           <t>Monza</t>
         </is>
       </c>
-      <c r="G165" t="n">
+      <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
+      <c r="J173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-monza/CAfrqsOG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45289.86458333334</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
         <v>1</v>
       </c>
-      <c r="J165" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>10/12/2023 10:02</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>22/12/2023 20:40</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>10/12/2023 10:02</t>
-        </is>
-      </c>
-      <c r="P165" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>22/12/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R165" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>10/12/2023 10:02</t>
-        </is>
-      </c>
-      <c r="T165" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U165" t="inlineStr">
-        <is>
-          <t>22/12/2023 20:37</t>
-        </is>
-      </c>
-      <c r="V165" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-fiorentina/4KutySPu/</t>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>29/12/2023 20:21</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>29/12/2023 20:21</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>29/12/2023 20:17</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/genoa-inter/4v8RnPOi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45289.86458333334</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>3</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>29/12/2023 20:21</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>29/12/2023 20:22</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>29/12/2023 20:23</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-frosinone/Qgdzo3g4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45290.52083333334</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>30/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>30/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>30/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-lecce/zPTDT1OT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45290.625</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:00</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-empoli/xYFuPLWp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45290.625</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>3</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:00</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:00</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-bologna/h88CREhq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45290.75</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>30/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>30/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>30/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-salernitana/6BCGQY7k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45290.75</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>30/12/2023 17:31</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>30/12/2023 17:41</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>6</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>30/12/2023 17:41</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-sassuolo/YJevpN8A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45290.86458333334</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>30/12/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>30/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>30/12/2023 20:38</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/juventus-as-roma/n3cWoqvb/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V181"/>
+  <dimension ref="A1:V182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:44</t>
+          <t>20/08/2023 20:40</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:42</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:40</t>
+          <t>20/08/2023 20:44</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -3701,62 +3701,62 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.47</v>
+        <v>3.16</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>17/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>29/08/2023 08:54</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:49</t>
-        </is>
-      </c>
       <c r="R36" t="n">
-        <v>3.76</v>
+        <v>2.51</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.17</v>
+        <v>2.35</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.16</v>
+        <v>2.47</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>17/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="R37" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>29/08/2023 08:54</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:59</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>5.1</v>
+        <v>3.34</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.91</v>
+        <v>3.34</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>8.19</v>
+        <v>2.58</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>11/09/2023 13:30</t>
+          <t>05/09/2023 12:02</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>7.88</v>
+        <v>2.36</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.34</v>
+        <v>5.1</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>4.91</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.58</v>
+        <v>8.19</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>05/09/2023 12:02</t>
+          <t>11/09/2023 13:30</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.36</v>
+        <v>7.88</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-fiorentina/pAFlnXGq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/atalanta-cagliari/hEul5i6O/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>5.55</v>
+        <v>2.25</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>3.58</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.92</v>
+        <v>2.85</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.25</v>
+        <v>3.96</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.8</v>
+        <v>4.48</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.02</v>
+        <v>3.76</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.19</v>
+        <v>3.66</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.58</v>
+        <v>1.85</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.85</v>
+        <v>1.9</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>3.96</v>
+        <v>5.55</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.43</v>
+        <v>4.05</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:22</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:25</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.89</v>
+        <v>1.85</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:30</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.35</v>
+        <v>2.01</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>28/09/2023 18:29</t>
+          <t>28/09/2023 18:09</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.97</v>
+        <v>2.31</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:22</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:25</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 09:30</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.01</v>
+        <v>3.35</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>28/09/2023 18:09</t>
+          <t>28/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-fiorentina/4QYW8fOd/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-bologna/n9Ui4WxS/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:21</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.24</v>
+        <v>3.08</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.81</v>
+        <v>3.31</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:29</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:21</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.08</v>
+        <v>5.24</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.31</v>
+        <v>5.81</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:29</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.86</v>
+        <v>3.25</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.04</v>
+        <v>3.53</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:20</t>
+          <t>12/11/2023 14:34</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.71</v>
+        <v>3.45</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:16</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.26</v>
+        <v>2.26</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.98</v>
+        <v>2.2</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:34</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-bologna/M5gKsCQj/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-atalanta/rFfGrhBp/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>3.25</v>
+        <v>1.86</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.53</v>
+        <v>2.04</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:34</t>
+          <t>12/11/2023 14:20</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.45</v>
+        <v>3.71</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.46</v>
+        <v>3.47</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:16</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.26</v>
+        <v>4.26</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.2</v>
+        <v>3.98</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 14:34</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-atalanta/rFfGrhBp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-bologna/M5gKsCQj/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>2.14</v>
+        <v>1.47</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.53</v>
+        <v>1.5</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>17/12/2023 14:55</t>
+          <t>17/12/2023 14:59</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.54</v>
+        <v>4.28</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.44</v>
+        <v>4.45</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>17/12/2023 14:53</t>
+          <t>17/12/2023 14:59</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.17</v>
+        <v>6.17</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.93</v>
+        <v>7.06</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>17/12/2023 14:55</t>
+          <t>17/12/2023 14:59</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-sassuolo/WWARH4PH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-verona/fV1rSlmP/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="n">
-        <v>1.47</v>
+        <v>2.14</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.5</v>
+        <v>2.53</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>17/12/2023 14:59</t>
+          <t>17/12/2023 14:55</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>4.28</v>
+        <v>3.54</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4.45</v>
+        <v>3.44</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>17/12/2023 14:59</t>
+          <t>17/12/2023 14:53</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>6.17</v>
+        <v>3.17</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>7.06</v>
+        <v>2.93</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>17/12/2023 14:59</t>
+          <t>17/12/2023 14:55</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-verona/fV1rSlmP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-sassuolo/WWARH4PH/</t>
         </is>
       </c>
     </row>
@@ -17106,6 +17106,98 @@
       <c r="V181" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/juventus-as-roma/n3cWoqvb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45296.86458333334</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>05/01/2024 20:44</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>05/01/2024 20:44</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>05/01/2024 20:44</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-genoa/0YBKPhNe/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:40</t>
+          <t>20/08/2023 20:44</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20/08/2023 20:31</t>
+          <t>20/08/2023 20:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:44</t>
+          <t>20/08/2023 20:40</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20/08/2023 20:42</t>
+          <t>20/08/2023 20:31</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-lazio/80d4l8PF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-juventus/zFCpUwv1/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.16</v>
+        <v>2.47</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>17/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="R36" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>29/08/2023 08:54</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:59</t>
-        </is>
-      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
         </is>
       </c>
     </row>
@@ -3793,62 +3793,62 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.47</v>
+        <v>3.16</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>17/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>29/08/2023 08:54</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:49</t>
-        </is>
-      </c>
       <c r="R37" t="n">
-        <v>3.76</v>
+        <v>2.51</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.17</v>
+        <v>2.35</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.25</v>
+        <v>5.55</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:26</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.58</v>
+        <v>1.56</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 09:02</t>
+          <t>23/09/2023 09:29</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/09/2023 18:28</t>
+          <t>27/09/2023 18:10</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>3.96</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.48</v>
+        <v>2.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.76</v>
+        <v>3.02</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.66</v>
+        <v>3.19</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:26</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.85</v>
+        <v>3.58</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.9</v>
+        <v>2.85</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/09/2023 18:29</t>
+          <t>27/09/2023 18:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-salernitana/jNpkpBod/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
       <c r="J55" t="n">
-        <v>5.55</v>
+        <v>3.96</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>23/09/2023 09:29</t>
+          <t>17/09/2023 09:02</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 18:10</t>
+          <t>27/09/2023 18:29</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-ac-milan/CWoooiWk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-atalanta/4QAObA0k/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:21</t>
+          <t>02/10/2023 18:23</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.08</v>
+        <v>5.24</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.31</v>
+        <v>5.81</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/10/2023 18:22</t>
+          <t>02/10/2023 18:29</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:23</t>
+          <t>02/10/2023 18:21</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.24</v>
+        <v>3.08</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>5.81</v>
+        <v>3.31</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/10/2023 18:29</t>
+          <t>02/10/2023 18:22</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-verona/hAV1CTUl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-monza/ppWcD9Fr/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>2.77</v>
+        <v>5.3</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.89</v>
+        <v>6.64</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>22/12/2023 20:40</t>
+          <t>22/12/2023 20:44</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.32</v>
+        <v>4.1</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.34</v>
+        <v>4.73</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.49</v>
+        <v>1.56</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>2.63</v>
+        <v>1.49</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>22/12/2023 20:37</t>
+          <t>22/12/2023 20:43</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-fiorentina/4KutySPu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-ac-milan/CpqlZ5fh/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>5.3</v>
+        <v>2.77</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,48 +15592,48 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>6.64</v>
+        <v>2.89</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
+          <t>22/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
           <t>22/12/2023 20:44</t>
         </is>
       </c>
-      <c r="N165" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O165" t="inlineStr">
+      <c r="R165" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S165" t="inlineStr">
         <is>
           <t>10/12/2023 10:02</t>
         </is>
       </c>
-      <c r="P165" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>22/12/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R165" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>10/12/2023 10:02</t>
-        </is>
-      </c>
       <c r="T165" t="n">
-        <v>1.49</v>
+        <v>2.63</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>22/12/2023 20:43</t>
+          <t>22/12/2023 20:37</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-ac-milan/CpqlZ5fh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-fiorentina/4KutySPu/</t>
         </is>
       </c>
     </row>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -15945,14 +15945,14 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1.2</v>
+        <v>2.53</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.29</v>
+        <v>2.43</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>23/12/2023 17:40</t>
+          <t>23/12/2023 17:58</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>6.24</v>
+        <v>3.33</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>5.74</v>
+        <v>3.27</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>23/12/2023 17:59</t>
+          <t>23/12/2023 17:52</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>11.21</v>
+        <v>2.74</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>11.96</v>
+        <v>3.23</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>23/12/2023 17:59</t>
+          <t>23/12/2023 17:58</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-lecce/vcEZFrfU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-cagliari/pzy1W3vB/</t>
         </is>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -16037,14 +16037,14 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>2.53</v>
+        <v>1.2</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.43</v>
+        <v>1.29</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>23/12/2023 17:58</t>
+          <t>23/12/2023 17:40</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.33</v>
+        <v>6.24</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.27</v>
+        <v>5.74</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>23/12/2023 17:52</t>
+          <t>23/12/2023 17:59</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>2.74</v>
+        <v>11.21</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>3.23</v>
+        <v>11.96</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>23/12/2023 17:58</t>
+          <t>23/12/2023 17:59</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-cagliari/pzy1W3vB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-lecce/vcEZFrfU/</t>
         </is>
       </c>
     </row>
@@ -16213,71 +16213,71 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>17/12/2023 18:02</t>
+          <t>17/12/2023 18:03</t>
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
+          <t>29/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
           <t>29/12/2023 18:29</t>
         </is>
       </c>
-      <c r="N172" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>17/12/2023 18:02</t>
-        </is>
-      </c>
-      <c r="P172" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="Q172" t="inlineStr">
-        <is>
-          <t>29/12/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R172" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="S172" t="inlineStr">
-        <is>
-          <t>17/12/2023 18:02</t>
-        </is>
-      </c>
-      <c r="T172" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="U172" t="inlineStr">
-        <is>
-          <t>29/12/2023 18:29</t>
-        </is>
-      </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-torino/jy4Nm59o/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-monza/CAfrqsOG/</t>
         </is>
       </c>
     </row>
@@ -16305,62 +16305,62 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.58</v>
+        <v>2.18</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>29/12/2023 18:21</t>
+          <t>29/12/2023 18:29</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>4.65</v>
+        <v>3.37</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4.28</v>
+        <v>3.19</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>29/12/2023 18:28</t>
+          <t>29/12/2023 18:29</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>6.36</v>
+        <v>3.99</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>6.03</v>
+        <v>3.89</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-monza/CAfrqsOG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-torino/jy4Nm59o/</t>
         </is>
       </c>
     </row>
@@ -16673,62 +16673,62 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1.88</v>
+        <v>2.47</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>17/12/2023 18:02</t>
+          <t>17/12/2023 18:03</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.07</v>
+        <v>3.57</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>30/12/2023 14:57</t>
+          <t>30/12/2023 14:59</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.63</v>
+        <v>3.22</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>17/12/2023 18:02</t>
+          <t>17/12/2023 18:03</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.61</v>
+        <v>3.08</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>30/12/2023 14:56</t>
+          <t>30/12/2023 15:00</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.88</v>
+        <v>2.9</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>17/12/2023 18:02</t>
+          <t>17/12/2023 18:03</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.72</v>
+        <v>2.36</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-empoli/xYFuPLWp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-bologna/h88CREhq/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>2.47</v>
+        <v>1.88</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>3.57</v>
+        <v>2.07</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>30/12/2023 14:59</t>
+          <t>30/12/2023 14:57</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.22</v>
+        <v>3.63</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.08</v>
+        <v>3.61</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>30/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
           <t>30/12/2023 15:00</t>
         </is>
       </c>
-      <c r="R178" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>17/12/2023 18:03</t>
-        </is>
-      </c>
-      <c r="T178" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>30/12/2023 15:00</t>
-        </is>
-      </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-bologna/h88CREhq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-empoli/xYFuPLWp/</t>
         </is>
       </c>
     </row>
@@ -17198,6 +17198,374 @@
       <c r="V182" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/bologna-genoa/0YBKPhNe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45297.52083333334</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:33</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:33</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>17</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:34</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-verona/fXhBnGU8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45297.625</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:53</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:57</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:53</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-monza/Gtf7mdF2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45297.75</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>06/01/2024 17:59</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>06/01/2024 17:53</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>06/01/2024 17:59</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lecce-cagliari/lfhFozpF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45297.86458333334</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>06/01/2024 20:44</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>06/01/2024 20:43</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>06/01/2024 20:42</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-fiorentina/WCnkuYMr/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-a_2023-2024.xlsx
+++ b/2023/italy_serie-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V186"/>
+  <dimension ref="A1:V189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:28</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22/08/2023 14:47</t>
+          <t>22/08/2023 14:46</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:28</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 14:46</t>
+          <t>22/08/2023 14:47</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-cagliari/r1iTvehJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-frosinone/rFW1gf7C/</t>
         </is>
       </c>
     </row>
@@ -3701,62 +3701,62 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.47</v>
+        <v>3.16</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>17/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>29/08/2023 08:54</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:49</t>
-        </is>
-      </c>
       <c r="R36" t="n">
-        <v>3.76</v>
+        <v>2.51</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>28/08/2023 16:01</t>
+          <t>29/08/2023 08:54</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.17</v>
+        <v>2.35</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.16</v>
+        <v>2.47</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>29/08/2023 08:54</t>
+          <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>17/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
           <t>17/09/2023 14:59</t>
         </is>
       </c>
-      <c r="R37" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>29/08/2023 08:54</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:59</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-sassuolo/K0st7DyC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-lecce/Wz9hGHEP/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>2</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
       <c r="J78" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>01/10/2023 20:26</t>
+          <t>27/09/2023 23:02</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.24</v>
+        <v>3.06</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:51</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.36</v>
+        <v>3.53</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>01/10/2023 20:26</t>
+          <t>27/09/2023 23:02</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:51</t>
+          <t>08/10/2023 14:48</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.56</v>
+        <v>2.92</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>01/10/2023 20:26</t>
+          <t>27/09/2023 23:02</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.48</v>
+        <v>2.59</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-verona/Gl49V8yR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-atalanta/hUcmOQT0/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.06</v>
+        <v>2.24</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.23</v>
+        <v>3.46</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 14:48</t>
+          <t>08/10/2023 14:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.92</v>
+        <v>3.56</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>27/09/2023 23:02</t>
+          <t>01/10/2023 20:26</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.59</v>
+        <v>3.48</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/lazio-atalanta/hUcmOQT0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/frosinone-verona/Gl49V8yR/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.49</v>
+        <v>2.91</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.91</v>
+        <v>5.49</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-cagliari/CYUDvnEs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-frosinone/0f1eM4bD/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>5.3</v>
+        <v>2.77</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,48 +15500,48 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>6.64</v>
+        <v>2.89</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
+          <t>22/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
           <t>22/12/2023 20:44</t>
         </is>
       </c>
-      <c r="N164" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O164" t="inlineStr">
+      <c r="R164" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S164" t="inlineStr">
         <is>
           <t>10/12/2023 10:02</t>
         </is>
       </c>
-      <c r="P164" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>22/12/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R164" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S164" t="inlineStr">
-        <is>
-          <t>10/12/2023 10:02</t>
-        </is>
-      </c>
       <c r="T164" t="n">
-        <v>1.49</v>
+        <v>2.63</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>22/12/2023 20:43</t>
+          <t>22/12/2023 20:37</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-ac-milan/CpqlZ5fh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/monza-fiorentina/4KutySPu/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="n">
-        <v>2.77</v>
+        <v>5.3</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>2.89</v>
+        <v>6.64</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>22/12/2023 20:40</t>
+          <t>22/12/2023 20:44</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.32</v>
+        <v>4.1</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.34</v>
+        <v>4.73</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         </is>
       </c>
       <c r="R165" t="n">
-        <v>2.49</v>
+        <v>1.56</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>2.63</v>
+        <v>1.49</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>22/12/2023 20:37</t>
+          <t>22/12/2023 20:43</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/monza-fiorentina/4KutySPu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/salernitana-ac-milan/CpqlZ5fh/</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -15761,14 +15761,14 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1.88</v>
+        <v>2.77</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.66</v>
+        <v>2.84</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>23/12/2023 14:52</t>
+          <t>23/12/2023 14:59</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.76</v>
+        <v>3.11</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>23/12/2023 14:57</t>
+          <t>23/12/2023 14:59</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.23</v>
+        <v>2.49</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>6.15</v>
+        <v>2.83</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>23/12/2023 14:52</t>
+          <t>23/12/2023 14:59</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/torino-udinese/YaXdXqP4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-atalanta/vcz5VNgH/</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -15853,14 +15853,14 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>2.77</v>
+        <v>1.88</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.84</v>
+        <v>1.66</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>23/12/2023 14:59</t>
+          <t>23/12/2023 14:52</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.11</v>
+        <v>3.76</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>23/12/2023 14:59</t>
+          <t>23/12/2023 14:57</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>2.49</v>
+        <v>4.23</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.83</v>
+        <v>6.15</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>23/12/2023 14:59</t>
+          <t>23/12/2023 14:52</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/bologna-atalanta/vcz5VNgH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-udinese/YaXdXqP4/</t>
         </is>
       </c>
     </row>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -15945,14 +15945,14 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>2.53</v>
+        <v>1.2</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2.43</v>
+        <v>1.29</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>23/12/2023 17:58</t>
+          <t>23/12/2023 17:40</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.33</v>
+        <v>6.24</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.27</v>
+        <v>5.74</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>23/12/2023 17:52</t>
+          <t>23/12/2023 17:59</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>2.74</v>
+        <v>11.21</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>3.23</v>
+        <v>11.96</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>23/12/2023 17:58</t>
+          <t>23/12/2023 17:59</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-cagliari/pzy1W3vB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/inter-lecce/vcEZFrfU/</t>
         </is>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -16037,14 +16037,14 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1.2</v>
+        <v>2.53</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.29</v>
+        <v>2.43</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>23/12/2023 17:40</t>
+          <t>23/12/2023 17:58</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>6.24</v>
+        <v>3.33</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>5.74</v>
+        <v>3.27</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>23/12/2023 17:59</t>
+          <t>23/12/2023 17:52</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>11.21</v>
+        <v>2.74</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>11.96</v>
+        <v>3.23</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>23/12/2023 17:59</t>
+          <t>23/12/2023 17:58</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/inter-lecce/vcEZFrfU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-cagliari/pzy1W3vB/</t>
         </is>
       </c>
     </row>
@@ -16213,62 +16213,62 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.58</v>
+        <v>2.18</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>29/12/2023 18:21</t>
+          <t>29/12/2023 18:29</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>4.65</v>
+        <v>3.37</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4.28</v>
+        <v>3.19</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>29/12/2023 18:28</t>
+          <t>29/12/2023 18:29</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>6.36</v>
+        <v>3.99</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="T172" t="n">
-        <v>6.03</v>
+        <v>3.89</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-monza/CAfrqsOG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-torino/jy4Nm59o/</t>
         </is>
       </c>
     </row>
@@ -16305,71 +16305,71 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>17/12/2023 18:02</t>
+          <t>17/12/2023 18:03</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
+          <t>29/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
           <t>29/12/2023 18:29</t>
         </is>
       </c>
-      <c r="N173" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>17/12/2023 18:02</t>
-        </is>
-      </c>
-      <c r="P173" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>29/12/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R173" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>17/12/2023 18:02</t>
-        </is>
-      </c>
-      <c r="T173" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="U173" t="inlineStr">
-        <is>
-          <t>29/12/2023 18:29</t>
-        </is>
-      </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/fiorentina-torino/jy4Nm59o/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/napoli-monza/CAfrqsOG/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>2.47</v>
+        <v>1.88</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.57</v>
+        <v>2.07</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>30/12/2023 14:59</t>
+          <t>30/12/2023 14:57</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.22</v>
+        <v>3.63</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>17/12/2023 18:03</t>
+          <t>17/12/2023 18:02</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.08</v>
+        <v>3.61</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
+          <t>30/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
           <t>30/12/2023 15:00</t>
         </is>
       </c>
-      <c r="R177" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>17/12/2023 18:03</t>
-        </is>
-      </c>
-      <c r="T177" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U177" t="inlineStr">
-        <is>
-          <t>30/12/2023 15:00</t>
-        </is>
-      </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-bologna/h88CREhq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-empoli/xYFuPLWp/</t>
         </is>
       </c>
     </row>
@@ -16765,62 +16765,62 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.88</v>
+        <v>2.47</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>17/12/2023 18:02</t>
+          <t>17/12/2023 18:03</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.07</v>
+        <v>3.57</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>30/12/2023 14:57</t>
+          <t>30/12/2023 14:59</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.63</v>
+        <v>3.22</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>17/12/2023 18:02</t>
+          <t>17/12/2023 18:03</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.61</v>
+        <v>3.08</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>30/12/2023 14:56</t>
+          <t>30/12/2023 15:00</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.88</v>
+        <v>2.9</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>17/12/2023 18:02</t>
+          <t>17/12/2023 18:03</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.72</v>
+        <v>2.36</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/cagliari-empoli/xYFuPLWp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-bologna/h88CREhq/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
       <c r="J179" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>30/12/2023 17:58</t>
+          <t>30/12/2023 17:31</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.42</v>
+        <v>4.64</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.5</v>
+        <v>4.86</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>30/12/2023 17:59</t>
+          <t>30/12/2023 17:41</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.94</v>
+        <v>6.05</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>4.37</v>
+        <v>6</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>30/12/2023 17:58</t>
+          <t>30/12/2023 17:41</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/verona-salernitana/6BCGQY7k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-sassuolo/YJevpN8A/</t>
         </is>
       </c>
     </row>
@@ -16949,22 +16949,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
         <v>1</v>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
       <c r="J180" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -16972,15 +16972,15 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>30/12/2023 17:31</t>
+          <t>30/12/2023 17:58</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>4.64</v>
+        <v>3.42</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -16988,15 +16988,15 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>4.86</v>
+        <v>3.5</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>30/12/2023 17:41</t>
+          <t>30/12/2023 17:59</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>6.05</v>
+        <v>3.94</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>6</v>
+        <v>4.37</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>30/12/2023 17:41</t>
+          <t>30/12/2023 17:58</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-a/ac-milan-sassuolo/YJevpN8A/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-a/verona-salernitana/6BCGQY7k/</t>
         </is>
       </c>
     </row>
@@ -17566,6 +17566,282 @@
       <c r="V186" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-a/sassuolo-fiorentina/WCnkuYMr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45298.52083333334</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J187" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:21</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:21</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:21</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/empoli-ac-milan/vPAOOCx2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45298.625</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>3</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:59</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:53</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:59</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/torino-napoli/0nigvhxk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45298.625</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:59</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:40</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>23/12/2024 23:02</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:53</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-a/udinese-lazio/vwjcwCie/</t>
         </is>
       </c>
     </row>
